--- a/Assets/Firebase/Database Mapping.xlsx
+++ b/Assets/Firebase/Database Mapping.xlsx
@@ -12,14 +12,14 @@
     <sheet name="kabupaten" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">item!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">item!$A$1:$C$44</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="158">
   <si>
     <t>code</t>
   </si>
@@ -105,6 +105,9 @@
     <t>price</t>
   </si>
   <si>
+    <t>qty</t>
+  </si>
+  <si>
     <t>category_name</t>
   </si>
   <si>
@@ -114,7 +117,10 @@
     <t>50000</t>
   </si>
   <si>
-    <t>{'code': '1','name': 'Cashew','category_code': '2','price': '50000'},</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>{'code': '1','name': 'Cashew','category_code': '2','price': 50000,'qty': 10},</t>
   </si>
   <si>
     <t>Dodol Classic Ny. Wie</t>
@@ -123,7 +129,7 @@
     <t>25000</t>
   </si>
   <si>
-    <t>{'code': '2','name': 'Dodol Classic Ny. Wie','category_code': '1','price': '25000'},</t>
+    <t>{'code': '2','name': 'Dodol Classic Ny. Wie','category_code': '1','price': 25000,'qty': 10},</t>
   </si>
   <si>
     <t>Dodol Coklat Ny.Wie</t>
@@ -132,7 +138,7 @@
     <t>30000</t>
   </si>
   <si>
-    <t>{'code': '3','name': 'Dodol Coklat Ny.Wie','category_code': '1','price': '30000'},</t>
+    <t>{'code': '3','name': 'Dodol Coklat Ny.Wie','category_code': '1','price': 30000,'qty': 10},</t>
   </si>
   <si>
     <t>Dodol Durian Asli Maria</t>
@@ -141,7 +147,7 @@
     <t>35000</t>
   </si>
   <si>
-    <t>{'code': '4','name': 'Dodol Durian Asli Maria','category_code': '1','price': '35000'},</t>
+    <t>{'code': '4','name': 'Dodol Durian Asli Maria','category_code': '1','price': 35000,'qty': 10},</t>
   </si>
   <si>
     <t>Dodol Pandan Ny.Wie</t>
@@ -150,7 +156,7 @@
     <t>15000</t>
   </si>
   <si>
-    <t>{'code': '5','name': 'Dodol Pandan Ny.Wie','category_code': '1','price': '15000'},</t>
+    <t>{'code': '5','name': 'Dodol Pandan Ny.Wie','category_code': '1','price': 15000,'qty': 10},</t>
   </si>
   <si>
     <t>Dodol Sirsak</t>
@@ -159,7 +165,7 @@
     <t>45000</t>
   </si>
   <si>
-    <t>{'code': '6','name': 'Dodol Sirsak','category_code': '1','price': '45000'},</t>
+    <t>{'code': '6','name': 'Dodol Sirsak','category_code': '1','price': 45000,'qty': 10},</t>
   </si>
   <si>
     <t>Forest Kopi Luwak Arabica</t>
@@ -168,13 +174,13 @@
     <t>40000</t>
   </si>
   <si>
-    <t>{'code': '7','name': 'Forest Kopi Luwak Arabica','category_code': '5','price': '40000'},</t>
+    <t>{'code': '7','name': 'Forest Kopi Luwak Arabica','category_code': '5','price': 40000,'qty': 10},</t>
   </si>
   <si>
     <t>Forest Kopi Mandheling Sumatra Utara Arabica</t>
   </si>
   <si>
-    <t>{'code': '8','name': 'Forest Kopi Mandheling Sumatra Utara Arabica','category_code': '5','price': '50000'},</t>
+    <t>{'code': '8','name': 'Forest Kopi Mandheling Sumatra Utara Arabica','category_code': '5','price': 50000,'qty': 10},</t>
   </si>
   <si>
     <t>Forest Kopi Mix Arabica Robusta</t>
@@ -183,7 +189,7 @@
     <t>20000</t>
   </si>
   <si>
-    <t>{'code': '9','name': 'Forest Kopi Mix Arabica Robusta','category_code': '5','price': '20000'},</t>
+    <t>{'code': '9','name': 'Forest Kopi Mix Arabica Robusta','category_code': '5','price': 20000,'qty': 10},</t>
   </si>
   <si>
     <t>Forest Kopi Special Lanang Robusta 200 Gr</t>
@@ -192,13 +198,13 @@
     <t>10000</t>
   </si>
   <si>
-    <t>{'code': '10','name': 'Forest Kopi Special Lanang Robusta 200 Gr','category_code': '5','price': '10000'},</t>
+    <t>{'code': '10','name': 'Forest Kopi Special Lanang Robusta 200 Gr','category_code': '5','price': 10000,'qty': 10},</t>
   </si>
   <si>
     <t>Forest Kopi Toraja Sulawesi Arabica</t>
   </si>
   <si>
-    <t>{'code': '11','name': 'Forest Kopi Toraja Sulawesi Arabica','category_code': '5','price': '15000'},</t>
+    <t>{'code': '11','name': 'Forest Kopi Toraja Sulawesi Arabica','category_code': '5','price': 15000,'qty': 10},</t>
   </si>
   <si>
     <t>Jipang Citra Robani</t>
@@ -207,7 +213,7 @@
     <t>16000</t>
   </si>
   <si>
-    <t>{'code': '12','name': 'Jipang Citra Robani','category_code': '11','price': '16000'},</t>
+    <t>{'code': '12','name': 'Jipang Citra Robani','category_code': '11','price': 16000,'qty': 10},</t>
   </si>
   <si>
     <t>Jipang Ola</t>
@@ -216,187 +222,187 @@
     <t>14000</t>
   </si>
   <si>
-    <t>{'code': '13','name': 'Jipang Ola','category_code': '11','price': '14000'},</t>
+    <t>{'code': '13','name': 'Jipang Ola','category_code': '11','price': 14000,'qty': 10},</t>
   </si>
   <si>
     <t>Kacang Upet Idola</t>
   </si>
   <si>
-    <t>{'code': '14','name': 'Kacang Upet Idola','category_code': '2','price': '15000'},</t>
+    <t>{'code': '14','name': 'Kacang Upet Idola','category_code': '2','price': 15000,'qty': 10},</t>
   </si>
   <si>
     <t>Keripik Pisang Sele</t>
   </si>
   <si>
-    <t>{'code': '15','name': 'Keripik Pisang Sele','category_code': '3','price': '50000'},</t>
+    <t>{'code': '15','name': 'Keripik Pisang Sele','category_code': '3','price': 50000,'qty': 10},</t>
   </si>
   <si>
     <t>Keripik Singkong Balado Cap Salam</t>
   </si>
   <si>
-    <t>{'code': '16','name': 'Keripik Singkong Balado Cap Salam','category_code': '3','price': '25000'},</t>
+    <t>{'code': '16','name': 'Keripik Singkong Balado Cap Salam','category_code': '3','price': 25000,'qty': 10},</t>
   </si>
   <si>
     <t>Keripik Singkong Cabe Hijau Cap Salam</t>
   </si>
   <si>
-    <t>{'code': '17','name': 'Keripik Singkong Cabe Hijau Cap Salam','category_code': '3','price': '30000'},</t>
+    <t>{'code': '17','name': 'Keripik Singkong Cabe Hijau Cap Salam','category_code': '3','price': 30000,'qty': 10},</t>
   </si>
   <si>
     <t>Keripik Singkong Cayaha Baru</t>
   </si>
   <si>
-    <t>{'code': '18','name': 'Keripik Singkong Cayaha Baru','category_code': '3','price': '35000'},</t>
+    <t>{'code': '18','name': 'Keripik Singkong Cayaha Baru','category_code': '3','price': 35000,'qty': 10},</t>
   </si>
   <si>
     <t>Keripik Singkong Dhifa</t>
   </si>
   <si>
-    <t>{'code': '19','name': 'Keripik Singkong Dhifa','category_code': '3','price': '15000'},</t>
+    <t>{'code': '19','name': 'Keripik Singkong Dhifa','category_code': '3','price': 15000,'qty': 10},</t>
   </si>
   <si>
     <t>Keripik Singkong Merpati Putih</t>
   </si>
   <si>
-    <t>{'code': '20','name': 'Keripik Singkong Merpati Putih','category_code': '3','price': '45000'},</t>
+    <t>{'code': '20','name': 'Keripik Singkong Merpati Putih','category_code': '3','price': 45000,'qty': 10},</t>
   </si>
   <si>
     <t>Kerupuk Bulat Super Mekar Sari</t>
   </si>
   <si>
-    <t>{'code': '21','name': 'Kerupuk Bulat Super Mekar Sari','category_code': '4','price': '20000'},</t>
+    <t>{'code': '21','name': 'Kerupuk Bulat Super Mekar Sari','category_code': '4','price': 20000,'qty': 10},</t>
   </si>
   <si>
     <t>Kerupuk Bulat Udang Mekar Sari</t>
   </si>
   <si>
-    <t>{'code': '22','name': 'Kerupuk Bulat Udang Mekar Sari','category_code': '4','price': '10000'},</t>
+    <t>{'code': '22','name': 'Kerupuk Bulat Udang Mekar Sari','category_code': '4','price': 10000,'qty': 10},</t>
   </si>
   <si>
     <t>Kerupuk Pir Mekar Sari</t>
   </si>
   <si>
-    <t>{'code': '23','name': 'Kerupuk Pir Mekar Sari','category_code': '4','price': '15000'},</t>
+    <t>{'code': '23','name': 'Kerupuk Pir Mekar Sari','category_code': '4','price': 15000,'qty': 10},</t>
   </si>
   <si>
     <t>Koya</t>
   </si>
   <si>
-    <t>{'code': '24','name': 'Koya','category_code': '11','price': '25000'},</t>
+    <t>{'code': '24','name': 'Koya','category_code': '11','price': 25000,'qty': 10},</t>
   </si>
   <si>
     <t>Kue Bangkit Cap Bunga Melati</t>
   </si>
   <si>
-    <t>{'code': '25','name': 'Kue Bangkit Cap Bunga Melati','category_code': '6','price': '30000'},</t>
+    <t>{'code': '25','name': 'Kue Bangkit Cap Bunga Melati','category_code': '6','price': 30000,'qty': 10},</t>
   </si>
   <si>
     <t>Kue Bangkit Rasa Durian Cap Bunga Melati</t>
   </si>
   <si>
-    <t>{'code': '26','name': 'Kue Bangkit Rasa Durian Cap Bunga Melati','category_code': '6','price': '35000'},</t>
+    <t>{'code': '26','name': 'Kue Bangkit Rasa Durian Cap Bunga Melati','category_code': '6','price': 35000,'qty': 10},</t>
   </si>
   <si>
     <t>Kue Bangkit Rasa Jahe Cap Bunga Melati</t>
   </si>
   <si>
-    <t>{'code': '27','name': 'Kue Bangkit Rasa Jahe Cap Bunga Melati','category_code': '6','price': '15000'},</t>
+    <t>{'code': '27','name': 'Kue Bangkit Rasa Jahe Cap Bunga Melati','category_code': '6','price': 15000,'qty': 10},</t>
   </si>
   <si>
     <t>Lempok Durian Ootong</t>
   </si>
   <si>
-    <t>{'code': '28','name': 'Lempok Durian Ootong','category_code': '7','price': '50000'},</t>
+    <t>{'code': '28','name': 'Lempok Durian Ootong','category_code': '7','price': 50000,'qty': 10},</t>
   </si>
   <si>
     <t>Manisan Belimbing Bulu</t>
   </si>
   <si>
-    <t>{'code': '29','name': 'Manisan Belimbing Bulu','category_code': '8','price': '20000'},</t>
+    <t>{'code': '29','name': 'Manisan Belimbing Bulu','category_code': '8','price': 20000,'qty': 10},</t>
   </si>
   <si>
     <t>Manisan Cerme</t>
   </si>
   <si>
-    <t>{'code': '30','name': 'Manisan Cerme','category_code': '8','price': '10000'},</t>
+    <t>{'code': '30','name': 'Manisan Cerme','category_code': '8','price': 10000,'qty': 10},</t>
   </si>
   <si>
     <t>Manisan Loba Lobi</t>
   </si>
   <si>
-    <t>{'code': '31','name': 'Manisan Loba Lobi','category_code': '8','price': '15000'},</t>
+    <t>{'code': '31','name': 'Manisan Loba Lobi','category_code': '8','price': 15000,'qty': 10},</t>
   </si>
   <si>
     <t>Mix Nuts</t>
   </si>
   <si>
-    <t>{'code': '32','name': 'Mix Nuts','category_code': '2','price': '14000'},</t>
+    <t>{'code': '32','name': 'Mix Nuts','category_code': '2','price': 14000,'qty': 10},</t>
   </si>
   <si>
     <t>Rengginang Borobudur</t>
   </si>
   <si>
-    <t>{'code': '33','name': 'Rengginang Borobudur','category_code': '11','price': '15000'},</t>
+    <t>{'code': '33','name': 'Rengginang Borobudur','category_code': '11','price': 15000,'qty': 10},</t>
   </si>
   <si>
     <t>Rengginang Robani</t>
   </si>
   <si>
-    <t>{'code': '34','name': 'Rengginang Robani','category_code': '11','price': '50000'},</t>
+    <t>{'code': '34','name': 'Rengginang Robani','category_code': '11','price': 50000,'qty': 10},</t>
   </si>
   <si>
     <t>Sale Pisang BlueBerry Putra</t>
   </si>
   <si>
-    <t>{'code': '35','name': 'Sale Pisang BlueBerry Putra','category_code': '9','price': '15000'},</t>
+    <t>{'code': '35','name': 'Sale Pisang BlueBerry Putra','category_code': '9','price': 15000,'qty': 10},</t>
   </si>
   <si>
     <t>Sale Pisang Coklat Putra</t>
   </si>
   <si>
-    <t>{'code': '36','name': 'Sale Pisang Coklat Putra','category_code': '9','price': '45000'},</t>
+    <t>{'code': '36','name': 'Sale Pisang Coklat Putra','category_code': '9','price': 45000,'qty': 10},</t>
   </si>
   <si>
     <t>Sale Pisang Keju</t>
   </si>
   <si>
-    <t>{'code': '37','name': 'Sale Pisang Keju','category_code': '9','price': '50000'},</t>
+    <t>{'code': '37','name': 'Sale Pisang Keju','category_code': '9','price': 50000,'qty': 10},</t>
   </si>
   <si>
     <t>Sale Pisang Spesial</t>
   </si>
   <si>
-    <t>{'code': '38','name': 'Sale Pisang Spesial','category_code': '9','price': '10000'},</t>
+    <t>{'code': '38','name': 'Sale Pisang Spesial','category_code': '9','price': 10000,'qty': 10},</t>
   </si>
   <si>
     <t>Sale Pisang Strawberry Putra</t>
   </si>
   <si>
-    <t>{'code': '39','name': 'Sale Pisang Strawberry Putra','category_code': '9','price': '15000'},</t>
+    <t>{'code': '39','name': 'Sale Pisang Strawberry Putra','category_code': '9','price': 15000,'qty': 10},</t>
   </si>
   <si>
     <t>Sambal Goreng Ny. Lily</t>
   </si>
   <si>
-    <t>{'code': '40','name': 'Sambal Goreng Ny. Lily','category_code': '10','price': '16000'},</t>
+    <t>{'code': '40','name': 'Sambal Goreng Ny. Lily','category_code': '10','price': 16000,'qty': 10},</t>
   </si>
   <si>
     <t>Sambal Lampung Ny. Lily</t>
   </si>
   <si>
-    <t>{'code': '41','name': 'Sambal Lampung Ny. Lily','category_code': '10','price': '15000'},</t>
+    <t>{'code': '41','name': 'Sambal Lampung Ny. Lily','category_code': '10','price': 15000,'qty': 10},</t>
   </si>
   <si>
     <t>Tambang Ola</t>
   </si>
   <si>
-    <t>{'code': '42','name': 'Tambang Ola','category_code': '11','price': '25000'},</t>
+    <t>{'code': '42','name': 'Tambang Ola','category_code': '11','price': 25000,'qty': 10},</t>
   </si>
   <si>
     <t>Untir Untir Robani</t>
   </si>
   <si>
-    <t>{'code': '43','name': 'Untir Untir Robani','category_code': '11','price': '35000'},</t>
+    <t>{'code': '43','name': 'Untir Untir Robani','category_code': '11','price': 35000,'qty': 10},</t>
   </si>
   <si>
     <t>KAB. LAMPUNG BARAT</t>
@@ -494,10 +500,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -509,36 +515,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -559,11 +535,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,7 +596,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -591,6 +626,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -599,45 +641,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,7 +658,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,7 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +685,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +715,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,151 +847,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,11 +867,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,7 +901,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,17 +921,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,15 +947,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -958,153 +955,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1643,21 +1649,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G44"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="48.2857142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="21.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="79.1428571428571" customWidth="1"/>
+    <col min="4" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="21.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="79.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1674,1089 +1680,1221 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="str">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="str">
         <f>VLOOKUP(C2,category!$A$2:$B$12,2,FALSE)</f>
         <v>Kacang</v>
       </c>
-      <c r="F2" t="str">
-        <f>"{'"&amp;$A$1&amp;"': '"&amp;A2&amp;"','"&amp;$B$1&amp;"': '"&amp;B2&amp;"','"&amp;$C$1&amp;"': '"&amp;C2&amp;"','"&amp;$D$1&amp;"': '"&amp;D2&amp;"'},"</f>
-        <v>{'code': '1','name': 'Cashew','category_code': '2','price': '50000'},</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" t="str">
+        <f>"{'"&amp;$A$1&amp;"': '"&amp;A2&amp;"','"&amp;$B$1&amp;"': '"&amp;B2&amp;"','"&amp;$C$1&amp;"': '"&amp;C2&amp;"','"&amp;$D$1&amp;"': "&amp;D2&amp;",'"&amp;$E$1&amp;"': "&amp;E2&amp;"},"</f>
+        <v>{'code': '1','name': 'Cashew','category_code': '2','price': 50000,'qty': 10},</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="str">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="str">
         <f>VLOOKUP(C3,category!$A$2:$B$12,2,FALSE)</f>
         <v>Dodol</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F44" si="0">"{'"&amp;$A$1&amp;"': '"&amp;A3&amp;"','"&amp;$B$1&amp;"': '"&amp;B3&amp;"','"&amp;$C$1&amp;"': '"&amp;C3&amp;"','"&amp;$D$1&amp;"': '"&amp;D3&amp;"'},"</f>
-        <v>{'code': '2','name': 'Dodol Classic Ny. Wie','category_code': '1','price': '25000'},</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G44" si="0">"{'"&amp;$A$1&amp;"': '"&amp;A3&amp;"','"&amp;$B$1&amp;"': '"&amp;B3&amp;"','"&amp;$C$1&amp;"': '"&amp;C3&amp;"','"&amp;$D$1&amp;"': "&amp;D3&amp;",'"&amp;$E$1&amp;"': "&amp;E3&amp;"},"</f>
+        <v>{'code': '2','name': 'Dodol Classic Ny. Wie','category_code': '1','price': 25000,'qty': 10},</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="str">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="str">
         <f>VLOOKUP(C4,category!$A$2:$B$12,2,FALSE)</f>
         <v>Dodol</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '3','name': 'Dodol Coklat Ny.Wie','category_code': '1','price': '30000'},</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '3','name': 'Dodol Coklat Ny.Wie','category_code': '1','price': 30000,'qty': 10},</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="str">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="str">
         <f>VLOOKUP(C5,category!$A$2:$B$12,2,FALSE)</f>
         <v>Dodol</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '4','name': 'Dodol Durian Asli Maria','category_code': '1','price': '35000'},</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '4','name': 'Dodol Durian Asli Maria','category_code': '1','price': 35000,'qty': 10},</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="str">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="str">
         <f>VLOOKUP(C6,category!$A$2:$B$12,2,FALSE)</f>
         <v>Dodol</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '5','name': 'Dodol Pandan Ny.Wie','category_code': '1','price': '15000'},</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '5','name': 'Dodol Pandan Ny.Wie','category_code': '1','price': 15000,'qty': 10},</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="str">
+        <v>47</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="str">
         <f>VLOOKUP(C7,category!$A$2:$B$12,2,FALSE)</f>
         <v>Dodol</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '6','name': 'Dodol Sirsak','category_code': '1','price': '45000'},</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '6','name': 'Dodol Sirsak','category_code': '1','price': 45000,'qty': 10},</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="str">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="str">
         <f>VLOOKUP(C8,category!$A$2:$B$12,2,FALSE)</f>
         <v>Kopi</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '7','name': 'Forest Kopi Luwak Arabica','category_code': '5','price': '40000'},</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '7','name': 'Forest Kopi Luwak Arabica','category_code': '5','price': 40000,'qty': 10},</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="str">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="str">
         <f>VLOOKUP(C9,category!$A$2:$B$12,2,FALSE)</f>
         <v>Kopi</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '8','name': 'Forest Kopi Mandheling Sumatra Utara Arabica','category_code': '5','price': '50000'},</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '8','name': 'Forest Kopi Mandheling Sumatra Utara Arabica','category_code': '5','price': 50000,'qty': 10},</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="str">
+        <v>55</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="str">
         <f>VLOOKUP(C10,category!$A$2:$B$12,2,FALSE)</f>
         <v>Kopi</v>
       </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '9','name': 'Forest Kopi Mix Arabica Robusta','category_code': '5','price': '20000'},</v>
-      </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '9','name': 'Forest Kopi Mix Arabica Robusta','category_code': '5','price': 20000,'qty': 10},</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="str">
+        <v>58</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="str">
         <f>VLOOKUP(C11,category!$A$2:$B$12,2,FALSE)</f>
         <v>Kopi</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '10','name': 'Forest Kopi Special Lanang Robusta 200 Gr','category_code': '5','price': '10000'},</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '10','name': 'Forest Kopi Special Lanang Robusta 200 Gr','category_code': '5','price': 10000,'qty': 10},</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3">
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="str">
+        <v>44</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="str">
         <f>VLOOKUP(C12,category!$A$2:$B$12,2,FALSE)</f>
         <v>Kopi</v>
       </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '11','name': 'Forest Kopi Toraja Sulawesi Arabica','category_code': '5','price': '15000'},</v>
-      </c>
-      <c r="G12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '11','name': 'Forest Kopi Toraja Sulawesi Arabica','category_code': '5','price': 15000,'qty': 10},</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3">
         <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="str">
+        <v>63</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="str">
         <f>VLOOKUP(C13,category!$A$2:$B$12,2,FALSE)</f>
         <v>Snack</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '12','name': 'Jipang Citra Robani','category_code': '11','price': '16000'},</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '12','name': 'Jipang Citra Robani','category_code': '11','price': 16000,'qty': 10},</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3">
         <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="str">
+        <v>66</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="str">
         <f>VLOOKUP(C14,category!$A$2:$B$12,2,FALSE)</f>
         <v>Snack</v>
       </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '13','name': 'Jipang Ola','category_code': '11','price': '14000'},</v>
-      </c>
-      <c r="G14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '13','name': 'Jipang Ola','category_code': '11','price': 14000,'qty': 10},</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="str">
+        <v>44</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="str">
         <f>VLOOKUP(C15,category!$A$2:$B$12,2,FALSE)</f>
         <v>Kacang</v>
       </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '14','name': 'Kacang Upet Idola','category_code': '2','price': '15000'},</v>
-      </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '14','name': 'Kacang Upet Idola','category_code': '2','price': 15000,'qty': 10},</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="str">
+        <v>31</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="str">
         <f>VLOOKUP(C16,category!$A$2:$B$12,2,FALSE)</f>
         <v>Keripik</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '15','name': 'Keripik Pisang Sele','category_code': '3','price': '50000'},</v>
-      </c>
-      <c r="G16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '15','name': 'Keripik Pisang Sele','category_code': '3','price': 50000,'qty': 10},</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="str">
+        <v>35</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="str">
         <f>VLOOKUP(C17,category!$A$2:$B$12,2,FALSE)</f>
         <v>Keripik</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '16','name': 'Keripik Singkong Balado Cap Salam','category_code': '3','price': '25000'},</v>
-      </c>
-      <c r="G17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '16','name': 'Keripik Singkong Balado Cap Salam','category_code': '3','price': 25000,'qty': 10},</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="str">
+        <v>38</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="str">
         <f>VLOOKUP(C18,category!$A$2:$B$12,2,FALSE)</f>
         <v>Keripik</v>
       </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '17','name': 'Keripik Singkong Cabe Hijau Cap Salam','category_code': '3','price': '30000'},</v>
-      </c>
-      <c r="G18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '17','name': 'Keripik Singkong Cabe Hijau Cap Salam','category_code': '3','price': 30000,'qty': 10},</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="str">
+        <v>41</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="str">
         <f>VLOOKUP(C19,category!$A$2:$B$12,2,FALSE)</f>
         <v>Keripik</v>
       </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '18','name': 'Keripik Singkong Cayaha Baru','category_code': '3','price': '35000'},</v>
-      </c>
-      <c r="G19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '18','name': 'Keripik Singkong Cayaha Baru','category_code': '3','price': 35000,'qty': 10},</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" t="str">
+        <v>44</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="str">
         <f>VLOOKUP(C20,category!$A$2:$B$12,2,FALSE)</f>
         <v>Keripik</v>
       </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '19','name': 'Keripik Singkong Dhifa','category_code': '3','price': '15000'},</v>
-      </c>
-      <c r="G20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '19','name': 'Keripik Singkong Dhifa','category_code': '3','price': 15000,'qty': 10},</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" t="str">
+        <v>47</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="str">
         <f>VLOOKUP(C21,category!$A$2:$B$12,2,FALSE)</f>
         <v>Keripik</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '20','name': 'Keripik Singkong Merpati Putih','category_code': '3','price': '45000'},</v>
-      </c>
-      <c r="G21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '20','name': 'Keripik Singkong Merpati Putih','category_code': '3','price': 45000,'qty': 10},</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" t="str">
+        <v>55</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="str">
         <f>VLOOKUP(C22,category!$A$2:$B$12,2,FALSE)</f>
         <v>Kerupuk &amp; Kemplang</v>
       </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '21','name': 'Kerupuk Bulat Super Mekar Sari','category_code': '4','price': '20000'},</v>
-      </c>
-      <c r="G22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '21','name': 'Kerupuk Bulat Super Mekar Sari','category_code': '4','price': 20000,'qty': 10},</v>
+      </c>
+      <c r="H22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C23" s="3">
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="str">
+        <v>58</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="str">
         <f>VLOOKUP(C23,category!$A$2:$B$12,2,FALSE)</f>
         <v>Kerupuk &amp; Kemplang</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '22','name': 'Kerupuk Bulat Udang Mekar Sari','category_code': '4','price': '10000'},</v>
-      </c>
-      <c r="G23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '22','name': 'Kerupuk Bulat Udang Mekar Sari','category_code': '4','price': 10000,'qty': 10},</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="str">
+        <v>44</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="str">
         <f>VLOOKUP(C24,category!$A$2:$B$12,2,FALSE)</f>
         <v>Kerupuk &amp; Kemplang</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '23','name': 'Kerupuk Pir Mekar Sari','category_code': '4','price': '15000'},</v>
-      </c>
-      <c r="G24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '23','name': 'Kerupuk Pir Mekar Sari','category_code': '4','price': 15000,'qty': 10},</v>
+      </c>
+      <c r="H24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C25" s="3">
         <v>11</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="str">
+        <v>35</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="str">
         <f>VLOOKUP(C25,category!$A$2:$B$12,2,FALSE)</f>
         <v>Snack</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '24','name': 'Koya','category_code': '11','price': '25000'},</v>
-      </c>
-      <c r="G25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '24','name': 'Koya','category_code': '11','price': 25000,'qty': 10},</v>
+      </c>
+      <c r="H25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C26" s="3">
         <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" t="str">
+        <v>38</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="str">
         <f>VLOOKUP(C26,category!$A$2:$B$12,2,FALSE)</f>
         <v>Kue</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '25','name': 'Kue Bangkit Cap Bunga Melati','category_code': '6','price': '30000'},</v>
-      </c>
-      <c r="G26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '25','name': 'Kue Bangkit Cap Bunga Melati','category_code': '6','price': 30000,'qty': 10},</v>
+      </c>
+      <c r="H26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C27" s="3">
         <v>6</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" t="str">
+        <v>41</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="str">
         <f>VLOOKUP(C27,category!$A$2:$B$12,2,FALSE)</f>
         <v>Kue</v>
       </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '26','name': 'Kue Bangkit Rasa Durian Cap Bunga Melati','category_code': '6','price': '35000'},</v>
-      </c>
-      <c r="G27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '26','name': 'Kue Bangkit Rasa Durian Cap Bunga Melati','category_code': '6','price': 35000,'qty': 10},</v>
+      </c>
+      <c r="H27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" t="str">
+        <v>44</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="str">
         <f>VLOOKUP(C28,category!$A$2:$B$12,2,FALSE)</f>
         <v>Kue</v>
       </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '27','name': 'Kue Bangkit Rasa Jahe Cap Bunga Melati','category_code': '6','price': '15000'},</v>
-      </c>
-      <c r="G28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '27','name': 'Kue Bangkit Rasa Jahe Cap Bunga Melati','category_code': '6','price': 15000,'qty': 10},</v>
+      </c>
+      <c r="H28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C29" s="3">
         <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" t="str">
+        <v>31</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="str">
         <f>VLOOKUP(C29,category!$A$2:$B$12,2,FALSE)</f>
         <v>Lempok</v>
       </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '28','name': 'Lempok Durian Ootong','category_code': '7','price': '50000'},</v>
-      </c>
-      <c r="G29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '28','name': 'Lempok Durian Ootong','category_code': '7','price': 50000,'qty': 10},</v>
+      </c>
+      <c r="H29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C30" s="3">
         <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" t="str">
+        <v>55</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="str">
         <f>VLOOKUP(C30,category!$A$2:$B$12,2,FALSE)</f>
         <v>Manisan</v>
       </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '29','name': 'Manisan Belimbing Bulu','category_code': '8','price': '20000'},</v>
-      </c>
-      <c r="G30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '29','name': 'Manisan Belimbing Bulu','category_code': '8','price': 20000,'qty': 10},</v>
+      </c>
+      <c r="H30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C31" s="3">
         <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" t="str">
+        <v>58</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="str">
         <f>VLOOKUP(C31,category!$A$2:$B$12,2,FALSE)</f>
         <v>Manisan</v>
       </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '30','name': 'Manisan Cerme','category_code': '8','price': '10000'},</v>
-      </c>
-      <c r="G31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '30','name': 'Manisan Cerme','category_code': '8','price': 10000,'qty': 10},</v>
+      </c>
+      <c r="H31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C32" s="3">
         <v>8</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" t="str">
+        <v>44</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="str">
         <f>VLOOKUP(C32,category!$A$2:$B$12,2,FALSE)</f>
         <v>Manisan</v>
       </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '31','name': 'Manisan Loba Lobi','category_code': '8','price': '15000'},</v>
-      </c>
-      <c r="G32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '31','name': 'Manisan Loba Lobi','category_code': '8','price': 15000,'qty': 10},</v>
+      </c>
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" t="str">
+        <v>66</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="str">
         <f>VLOOKUP(C33,category!$A$2:$B$12,2,FALSE)</f>
         <v>Kacang</v>
       </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '32','name': 'Mix Nuts','category_code': '2','price': '14000'},</v>
-      </c>
-      <c r="G33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '32','name': 'Mix Nuts','category_code': '2','price': 14000,'qty': 10},</v>
+      </c>
+      <c r="H33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C34" s="3">
         <v>11</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" t="str">
+        <v>44</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" t="str">
         <f>VLOOKUP(C34,category!$A$2:$B$12,2,FALSE)</f>
         <v>Snack</v>
       </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '33','name': 'Rengginang Borobudur','category_code': '11','price': '15000'},</v>
-      </c>
-      <c r="G34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '33','name': 'Rengginang Borobudur','category_code': '11','price': 15000,'qty': 10},</v>
+      </c>
+      <c r="H34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C35" s="3">
         <v>11</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" t="str">
+        <v>31</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" t="str">
         <f>VLOOKUP(C35,category!$A$2:$B$12,2,FALSE)</f>
         <v>Snack</v>
       </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '34','name': 'Rengginang Robani','category_code': '11','price': '50000'},</v>
-      </c>
-      <c r="G35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '34','name': 'Rengginang Robani','category_code': '11','price': 50000,'qty': 10},</v>
+      </c>
+      <c r="H35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C36" s="3">
         <v>9</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" t="str">
+        <v>44</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" t="str">
         <f>VLOOKUP(C36,category!$A$2:$B$12,2,FALSE)</f>
         <v>Sale Pisang</v>
       </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '35','name': 'Sale Pisang BlueBerry Putra','category_code': '9','price': '15000'},</v>
-      </c>
-      <c r="G36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '35','name': 'Sale Pisang BlueBerry Putra','category_code': '9','price': 15000,'qty': 10},</v>
+      </c>
+      <c r="H36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C37" s="3">
         <v>9</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" t="str">
+        <v>47</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" t="str">
         <f>VLOOKUP(C37,category!$A$2:$B$12,2,FALSE)</f>
         <v>Sale Pisang</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '36','name': 'Sale Pisang Coklat Putra','category_code': '9','price': '45000'},</v>
-      </c>
-      <c r="G37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '36','name': 'Sale Pisang Coklat Putra','category_code': '9','price': 45000,'qty': 10},</v>
+      </c>
+      <c r="H37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C38" s="3">
         <v>9</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" t="str">
+        <v>31</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="str">
         <f>VLOOKUP(C38,category!$A$2:$B$12,2,FALSE)</f>
         <v>Sale Pisang</v>
       </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '37','name': 'Sale Pisang Keju','category_code': '9','price': '50000'},</v>
-      </c>
-      <c r="G38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '37','name': 'Sale Pisang Keju','category_code': '9','price': 50000,'qty': 10},</v>
+      </c>
+      <c r="H38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C39" s="3">
         <v>9</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" t="str">
+        <v>58</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" t="str">
         <f>VLOOKUP(C39,category!$A$2:$B$12,2,FALSE)</f>
         <v>Sale Pisang</v>
       </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '38','name': 'Sale Pisang Spesial','category_code': '9','price': '10000'},</v>
-      </c>
-      <c r="G39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '38','name': 'Sale Pisang Spesial','category_code': '9','price': 10000,'qty': 10},</v>
+      </c>
+      <c r="H39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C40" s="3">
         <v>9</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" t="str">
+        <v>44</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" t="str">
         <f>VLOOKUP(C40,category!$A$2:$B$12,2,FALSE)</f>
         <v>Sale Pisang</v>
       </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '39','name': 'Sale Pisang Strawberry Putra','category_code': '9','price': '15000'},</v>
-      </c>
-      <c r="G40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '39','name': 'Sale Pisang Strawberry Putra','category_code': '9','price': 15000,'qty': 10},</v>
+      </c>
+      <c r="H40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C41" s="3">
         <v>10</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" t="str">
+        <v>63</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="str">
         <f>VLOOKUP(C41,category!$A$2:$B$12,2,FALSE)</f>
         <v>Sambal</v>
       </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '40','name': 'Sambal Goreng Ny. Lily','category_code': '10','price': '16000'},</v>
-      </c>
-      <c r="G41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '40','name': 'Sambal Goreng Ny. Lily','category_code': '10','price': 16000,'qty': 10},</v>
+      </c>
+      <c r="H41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C42" s="3">
         <v>10</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" t="str">
+        <v>44</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" t="str">
         <f>VLOOKUP(C42,category!$A$2:$B$12,2,FALSE)</f>
         <v>Sambal</v>
       </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '41','name': 'Sambal Lampung Ny. Lily','category_code': '10','price': '15000'},</v>
-      </c>
-      <c r="G42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '41','name': 'Sambal Lampung Ny. Lily','category_code': '10','price': 15000,'qty': 10},</v>
+      </c>
+      <c r="H42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C43" s="3">
         <v>11</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" t="str">
+        <v>35</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" t="str">
         <f>VLOOKUP(C43,category!$A$2:$B$12,2,FALSE)</f>
         <v>Snack</v>
       </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '42','name': 'Tambang Ola','category_code': '11','price': '25000'},</v>
-      </c>
-      <c r="G43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '42','name': 'Tambang Ola','category_code': '11','price': 25000,'qty': 10},</v>
+      </c>
+      <c r="H43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C44" s="3">
         <v>11</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" t="str">
+        <v>41</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" t="str">
         <f>VLOOKUP(C44,category!$A$2:$B$12,2,FALSE)</f>
         <v>Snack</v>
       </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>{'code': '43','name': 'Untir Untir Robani','category_code': '11','price': '35000'},</v>
-      </c>
-      <c r="G44" t="s">
-        <v>125</v>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>{'code': '43','name': 'Untir Untir Robani','category_code': '11','price': 35000,'qty': 10},</v>
+      </c>
+      <c r="H44" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1">
+  <autoFilter ref="A1:C44">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2798,14 +2936,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C2" t="str">
         <f>"{'"&amp;$A$1&amp;"': '"&amp;A2&amp;"','"&amp;$B$1&amp;"': '"&amp;B2&amp;"'},"</f>
         <v>{'code': '1','name': 'KAB. LAMPUNG BARAT'},</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2813,14 +2951,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C16" si="0">"{'"&amp;$A$1&amp;"': '"&amp;A3&amp;"','"&amp;$B$1&amp;"': '"&amp;B3&amp;"'},"</f>
         <v>{'code': '2','name': 'KAB. LAMPUNG SELATAN'},</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2828,14 +2966,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>{'code': '3','name': 'KAB. LAMPUNG TENGAH'},</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2843,14 +2981,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>{'code': '4','name': 'KAB. LAMPUNG TIMUR'},</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2858,14 +2996,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>{'code': '5','name': 'KAB. LAMPUNG UTARA'},</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2873,14 +3011,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>{'code': '6','name': 'KAB. MESUJI'},</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2888,14 +3026,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>{'code': '7','name': 'KAB. PESAWARAN'},</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2903,14 +3041,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>{'code': '8','name': 'KAB. PESISIR BARAT'},</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2918,14 +3056,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>{'code': '9','name': 'KAB. PRINGSEWU'},</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2933,14 +3071,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>{'code': '10','name': 'KAB. TANGGAMUS'},</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2948,14 +3086,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>{'code': '11','name': 'KAB. TULANG BAWANG'},</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2963,14 +3101,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>{'code': '12','name': 'KAB. TULANG BAWANG BARAT'},</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2978,14 +3116,14 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>{'code': '13','name': 'KAB. WAY KANAN'},</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2993,14 +3131,14 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>{'code': '14','name': 'KOTA BANDAR LAMPUNG'},</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3008,14 +3146,14 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>{'code': '15','name': 'KOTA METRO'},</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Firebase/Database Mapping.xlsx
+++ b/Assets/Firebase/Database Mapping.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="1" r:id="rId1"/>
     <sheet name="item" sheetId="2" r:id="rId2"/>
     <sheet name="kabupaten" sheetId="3" r:id="rId3"/>
+    <sheet name="users" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">item!$A$1:$C$44</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="165">
   <si>
     <t>code</t>
   </si>
@@ -493,6 +494,27 @@
   </si>
   <si>
     <t>{'code': '15','name': 'KOTA METRO'},</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin@example.com</t>
+  </si>
+  <si>
+    <t>adminadmin</t>
+  </si>
+  <si>
+    <t>{'username': 'admin','email': 'admin@example.com','password': 'adminadmin'},</t>
   </si>
 </sst>
 </file>
@@ -500,21 +522,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -529,17 +545,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,9 +565,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -572,18 +609,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,7 +626,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -611,39 +649,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,8 +671,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,7 +695,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +725,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,25 +809,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,133 +869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,17 +889,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,15 +937,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -921,26 +952,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,170 +986,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1651,13 +1676,13 @@
   <sheetPr/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+    <sheetView topLeftCell="B5" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="48.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.2857142857143" style="2" customWidth="1"/>
     <col min="4" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="21.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="79.1428571428571" customWidth="1"/>
@@ -1667,7 +1692,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1693,16 +1718,16 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F2" t="str">
@@ -1721,16 +1746,16 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F3" t="str">
@@ -1749,16 +1774,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F4" t="str">
@@ -1777,16 +1802,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F5" t="str">
@@ -1805,16 +1830,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F6" t="str">
@@ -1833,16 +1858,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F7" t="str">
@@ -1861,16 +1886,16 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F8" t="str">
@@ -1889,16 +1914,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F9" t="str">
@@ -1917,16 +1942,16 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F10" t="str">
@@ -1945,16 +1970,16 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F11" t="str">
@@ -1973,16 +1998,16 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F12" t="str">
@@ -2001,16 +2026,16 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>11</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F13" t="str">
@@ -2029,16 +2054,16 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>11</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F14" t="str">
@@ -2057,16 +2082,16 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F15" t="str">
@@ -2085,16 +2110,16 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F16" t="str">
@@ -2113,16 +2138,16 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F17" t="str">
@@ -2141,16 +2166,16 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>3</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F18" t="str">
@@ -2169,16 +2194,16 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>3</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F19" t="str">
@@ -2197,16 +2222,16 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>3</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F20" t="str">
@@ -2225,16 +2250,16 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>3</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F21" t="str">
@@ -2253,16 +2278,16 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F22" t="str">
@@ -2281,16 +2306,16 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>4</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F23" t="str">
@@ -2309,16 +2334,16 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>4</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F24" t="str">
@@ -2337,16 +2362,16 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>11</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F25" t="str">
@@ -2365,16 +2390,16 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <v>6</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F26" t="str">
@@ -2393,16 +2418,16 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>6</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F27" t="str">
@@ -2421,16 +2446,16 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>6</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F28" t="str">
@@ -2449,16 +2474,16 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>7</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F29" t="str">
@@ -2477,16 +2502,16 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>8</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F30" t="str">
@@ -2505,16 +2530,16 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>8</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F31" t="str">
@@ -2533,16 +2558,16 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>8</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F32" t="str">
@@ -2561,16 +2586,16 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>2</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F33" t="str">
@@ -2589,16 +2614,16 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <v>11</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F34" t="str">
@@ -2617,16 +2642,16 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <v>11</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F35" t="str">
@@ -2645,16 +2670,16 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
         <v>9</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F36" t="str">
@@ -2673,16 +2698,16 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>9</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F37" t="str">
@@ -2701,16 +2726,16 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="4">
         <v>9</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F38" t="str">
@@ -2729,16 +2754,16 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="4">
         <v>9</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F39" t="str">
@@ -2757,16 +2782,16 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="4">
         <v>9</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F40" t="str">
@@ -2785,16 +2810,16 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="4">
         <v>10</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F41" t="str">
@@ -2813,16 +2838,16 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="4">
         <v>10</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F42" t="str">
@@ -2841,16 +2866,16 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="4">
         <v>11</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F43" t="str">
@@ -2869,16 +2894,16 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="4">
         <v>11</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F44" t="str">
@@ -3160,4 +3185,65 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="27.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="19.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"{'"&amp;$A$1&amp;"': '"&amp;A2&amp;"','"&amp;$B$1&amp;"': '"&amp;B2&amp;"','"&amp;$C$1&amp;"': '"&amp;C2&amp;"'},"</f>
+        <v>{'username': 'admin','email': 'admin@example.com','password': 'adminadmin'},</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="admin@example.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>